--- a/qgis/data/export_report/VALUES.xlsx
+++ b/qgis/data/export_report/VALUES.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Github_code\EE_Python\qgis\data\export_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D6690F0F-A5BA-4555-B6E3-5A82FAFC7460}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093838A3-CED6-4572-B196-128A8FD453A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALUES!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -1005,12 +1013,18 @@
   </si>
   <si>
     <t>Sum areas</t>
+  </si>
+  <si>
+    <t>Mean : As above</t>
+  </si>
+  <si>
+    <t>Min : Takes the min from the record which have the lowest min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1860,7 +1874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3439,7 +3453,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L41">
+  <autoFilter ref="A1:L41" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
       <sortCondition ref="C1:C41"/>
     </sortState>
@@ -3449,17 +3463,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3477,7 +3491,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>325</v>
@@ -3628,6 +3642,16 @@
         <v>0.14413413220800145</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
